--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletaMensualVolumenesUNNAENERGIA_CNPC.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletaMensualVolumenesUNNAENERGIA_CNPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1434B6-2C69-4785-921E-09FBF00BC0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8B8A9F-7290-4A56-A8F1-DFBFE71343B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4E036BD-6332-4F68-84D3-72576083EFFD}"/>
   </bookViews>
@@ -290,7 +290,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -374,14 +374,17 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -839,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319E72CC-C785-4DD5-97F2-552AF07E05E1}">
   <dimension ref="A4:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,43 +1001,47 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="19" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
@@ -1043,16 +1050,16 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="20"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="34"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
@@ -1062,7 +1069,7 @@
       <c r="G28" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="B4:G5"/>
@@ -1072,6 +1079,7 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
